--- a/bin/sheets/main_db/teams/SRL/PlayerPerformance_3994.xlsx
+++ b/bin/sheets/main_db/teams/SRL/PlayerPerformance_3994.xlsx
@@ -7,7 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,6 +427,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3994</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Mathurage Don Kusal Janith Perera</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Left Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Does Not Bowl | Unknown</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -451,7 +516,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -503,7 +568,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3460</t>
+          <t>3460</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -555,7 +620,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3462</t>
+          <t>3462</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -595,7 +660,6 @@
           <t>3</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>20/01/2013</t>
@@ -603,7 +667,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3465</t>
+          <t>3465</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -655,7 +719,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3467</t>
+          <t>3467</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -707,7 +771,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3490</t>
+          <t>3490</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -759,7 +823,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3492</t>
+          <t>3492</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -811,7 +875,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3493</t>
+          <t>3493</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -863,7 +927,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3508</t>
+          <t>3508</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -915,7 +979,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3512</t>
+          <t>3512</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -967,7 +1031,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3516</t>
+          <t>3516</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1019,7 +1083,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3518</t>
+          <t>3518</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1059,7 +1123,6 @@
           <t>12</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>02/07/2013</t>
@@ -1067,7 +1130,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3524</t>
+          <t>3524</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1119,7 +1182,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3530</t>
+          <t>3530</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1171,7 +1234,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3543</t>
+          <t>3543</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1223,7 +1286,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3589</t>
+          <t>3589</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1275,7 +1338,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3590</t>
+          <t>3590</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1327,7 +1390,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3591</t>
+          <t>3591</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1379,7 +1442,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3592</t>
+          <t>3592</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1431,7 +1494,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3594</t>
+          <t>3594</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1483,7 +1546,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3614</t>
+          <t>3614</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1535,7 +1598,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3615</t>
+          <t>3615</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1587,7 +1650,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3616</t>
+          <t>3616</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1639,7 +1702,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3618</t>
+          <t>3618</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1691,7 +1754,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3621</t>
+          <t>3621</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1743,7 +1806,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3626</t>
+          <t>3626</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1795,7 +1858,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3630</t>
+          <t>3630</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1847,7 +1910,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3631</t>
+          <t>3631</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1899,7 +1962,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3635</t>
+          <t>3635</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1951,7 +2014,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3641</t>
+          <t>3641</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2003,7 +2066,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3642</t>
+          <t>3642</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2055,7 +2118,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3646</t>
+          <t>3646</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2107,7 +2170,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3647</t>
+          <t>3647</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2159,7 +2222,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3648</t>
+          <t>3648</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2211,7 +2274,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3689</t>
+          <t>3689</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2263,7 +2326,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3692</t>
+          <t>3692</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2315,7 +2378,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3693</t>
+          <t>3693</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2367,7 +2430,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3703</t>
+          <t>3703</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2419,7 +2482,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3706</t>
+          <t>3706</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2471,7 +2534,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3710</t>
+          <t>3710</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2523,7 +2586,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3712</t>
+          <t>3712</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2575,7 +2638,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3714</t>
+          <t>3714</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2627,7 +2690,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3782</t>
+          <t>3782</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2679,7 +2742,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3790</t>
+          <t>3790</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2731,7 +2794,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3814</t>
+          <t>3814</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2783,7 +2846,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3819</t>
+          <t>3819</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2835,7 +2898,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3820</t>
+          <t>3820</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2887,7 +2950,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3821</t>
+          <t>3821</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2939,7 +3002,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3822</t>
+          <t>3822</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2991,7 +3054,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3852</t>
+          <t>3852</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3043,7 +3106,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3853</t>
+          <t>3853</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3095,7 +3158,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3855</t>
+          <t>3855</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3147,7 +3210,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3901</t>
+          <t>3901</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3199,7 +3262,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3902</t>
+          <t>3902</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3251,7 +3314,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3904</t>
+          <t>3904</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3303,7 +3366,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3906</t>
+          <t>3906</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3355,7 +3418,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3908</t>
+          <t>3908</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3407,7 +3470,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3910</t>
+          <t>3910</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3459,7 +3522,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3911</t>
+          <t>3911</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3511,7 +3574,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3923</t>
+          <t>3923</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3563,7 +3626,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3924</t>
+          <t>3924</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3615,7 +3678,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3927</t>
+          <t>3927</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3667,7 +3730,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3929</t>
+          <t>3929</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3719,7 +3782,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3931</t>
+          <t>3931</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3771,7 +3834,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3959</t>
+          <t>3959</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3823,7 +3886,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3960</t>
+          <t>3960</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3863,7 +3926,6 @@
           <t>66</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr">
         <is>
           <t>21/11/2016</t>
@@ -3871,7 +3933,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3962</t>
+          <t>3962</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3923,7 +3985,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3963</t>
+          <t>3963</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3975,7 +4037,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3965</t>
+          <t>3965</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -4027,7 +4089,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4033</t>
+          <t>4033</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -4079,7 +4141,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4038</t>
+          <t>4038</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4131,7 +4193,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4112</t>
+          <t>4112</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4183,7 +4245,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4116</t>
+          <t>4116</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4235,7 +4297,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4119</t>
+          <t>4119</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4287,7 +4349,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4182</t>
+          <t>4182</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4339,7 +4401,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4183</t>
+          <t>4183</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4391,7 +4453,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4186</t>
+          <t>4186</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4443,7 +4505,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4187</t>
+          <t>4187</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4495,7 +4557,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4188</t>
+          <t>4188</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4547,7 +4609,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4193</t>
+          <t>4193</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4599,7 +4661,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4195</t>
+          <t>4195</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4639,7 +4701,6 @@
           <t>81</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr">
         <is>
           <t>10/10/2018</t>
@@ -4647,7 +4708,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4209</t>
+          <t>4209</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4699,7 +4760,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4210</t>
+          <t>4210</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4751,7 +4812,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4231</t>
+          <t>4231</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4803,7 +4864,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4232</t>
+          <t>4232</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4855,7 +4916,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4233</t>
+          <t>4233</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4907,7 +4968,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4261</t>
+          <t>4261</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4959,7 +5020,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4264</t>
+          <t>4264</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4999,7 +5060,6 @@
           <t>88</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr">
         <is>
           <t>10/03/2019</t>
@@ -5007,7 +5067,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4269</t>
+          <t>4269</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -5059,7 +5119,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4305</t>
+          <t>4305</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -5111,7 +5171,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4309</t>
+          <t>4309</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -5163,7 +5223,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4322</t>
+          <t>4322</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -5215,7 +5275,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4331</t>
+          <t>4331</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -5267,7 +5327,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4339</t>
+          <t>4339</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -5319,7 +5379,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4344</t>
+          <t>4344</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -5371,7 +5431,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4350</t>
+          <t>4350</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -5423,7 +5483,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4356</t>
+          <t>4356</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -5475,7 +5535,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4357</t>
+          <t>4357</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -5527,7 +5587,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4358</t>
+          <t>4358</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -5579,7 +5639,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4413</t>
+          <t>4413</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -5631,7 +5691,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4414</t>
+          <t>4414</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -5683,7 +5743,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4417</t>
+          <t>4417</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -5735,7 +5795,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4463</t>
+          <t>4463</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -5787,7 +5847,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4464</t>
+          <t>4464</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -5839,7 +5899,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4465</t>
+          <t>4465</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -5891,7 +5951,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4469</t>
+          <t>4469</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -5943,7 +6003,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4470</t>
+          <t>4470</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -5995,7 +6055,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4471</t>
+          <t>4471</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -6026,6 +6086,557 @@
       <c r="J108" t="inlineStr">
         <is>
           <t>7</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4269</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4305</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>21.32%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4309</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>38.81%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4322</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>21.05%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4331</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0.86%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4339</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>14.78%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4344</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>18.93%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4350</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>6.82%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4356</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4357</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4358</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4413</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>14.48%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4414</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4417</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>14.33%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4463</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>13.39%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4464</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4465</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>41.96%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4469</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>39.46%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4470</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4471</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/SRL/PlayerPerformance_3994.xlsx
+++ b/bin/sheets/main_db/teams/SRL/PlayerPerformance_3994.xlsx
@@ -1,15 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -660,6 +659,7 @@
           <t>3</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>20/01/2013</t>
@@ -1123,6 +1123,7 @@
           <t>12</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>02/07/2013</t>
@@ -3926,6 +3927,7 @@
           <t>66</t>
         </is>
       </c>
+      <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr">
         <is>
           <t>21/11/2016</t>
@@ -3938,7 +3940,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -4701,6 +4703,7 @@
           <t>81</t>
         </is>
       </c>
+      <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr">
         <is>
           <t>10/10/2018</t>
@@ -4713,7 +4716,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -5060,6 +5063,7 @@
           <t>88</t>
         </is>
       </c>
+      <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr">
         <is>
           <t>10/03/2019</t>
@@ -6086,557 +6090,6 @@
       <c r="J108" t="inlineStr">
         <is>
           <t>7</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4269</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4305</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>21.32%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4309</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>38.81%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4322</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>21.05%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4331</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>2</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0.86%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4339</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>14.78%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4344</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>18.93%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4350</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>6.82%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4356</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4357</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4358</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4413</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>3</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>14.48%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4414</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4417</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>3</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>14.33%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4463</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>2</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>13.39%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4464</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4465</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>2</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>41.96%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4469</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>2</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>39.46%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4470</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>2</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4471</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
         </is>
       </c>
     </row>
